--- a/Cost-Benefit Analysis For Airport Management.xlsx
+++ b/Cost-Benefit Analysis For Airport Management.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhiph\Documents\Job application\2024_06_YEG_techonogyAssetAnalyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhiph\Documents\GitHub\Cost-Benefit-Analysis-for-EIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB7D2E-D27E-4523-9F2E-B259789D2AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9BC12-01F7-4B1D-BF6A-C9125A260886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7030" yWindow="370" windowWidth="11235" windowHeight="10265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="0" windowWidth="15020" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Statements" sheetId="1" r:id="rId1"/>
+    <sheet name="IT Assets" sheetId="1" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="3" r:id="rId2"/>
     <sheet name="8.Intangible Assets" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>In the financial statements of EIA from 2019 til 2023</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -88,27 +85,115 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of total cost</t>
-  </si>
-  <si>
-    <t>Sum of total accumulated amortization</t>
-  </si>
-  <si>
-    <t>Sum of total net book value</t>
-  </si>
-  <si>
     <t>YEAR</t>
+  </si>
+  <si>
+    <t>Maintenance cost</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost savings</t>
+  </si>
+  <si>
+    <t>DXC Enterprise Asset Management</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Infrastructure costs</t>
+  </si>
+  <si>
+    <t>Implementation Cost</t>
+  </si>
+  <si>
+    <t>$75,000 to $200,000</t>
+  </si>
+  <si>
+    <t>https://community.dynamics.com/blogs/post/?postid=8d0c476c-f3f3-40f2-883a-3e975e40f943</t>
+  </si>
+  <si>
+    <t>Staff training sessions</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This include: Consulting fees, customization and development, Data migration, Training sessions for staff</t>
+  </si>
+  <si>
+    <t>$10,000 to $100,000</t>
+  </si>
+  <si>
+    <t>Reduced operational costs. Lower labour due to automation.</t>
+  </si>
+  <si>
+    <t>$5,000 to $10,000</t>
+  </si>
+  <si>
+    <t>$10,000 to $50,000</t>
+  </si>
+  <si>
+    <t>servers, networking, devices</t>
+  </si>
+  <si>
+    <t>cloud hosting fees, data storage</t>
+  </si>
+  <si>
+    <t>routine system checks</t>
+  </si>
+  <si>
+    <t>$5,000 to $20,000</t>
+  </si>
+  <si>
+    <t>varies</t>
+  </si>
+  <si>
+    <t>Might see 10-20% increase in revenue from the improvement of CRM and ERP</t>
+  </si>
+  <si>
+    <t>depends on the number of staffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Dynamics </t>
+  </si>
+  <si>
+    <t>$100,000 to $500,000</t>
+  </si>
+  <si>
+    <t>$50,000 to $200,000</t>
+  </si>
+  <si>
+    <t>$20,000 to $100,000</t>
+  </si>
+  <si>
+    <t>$10,000 to $30,000</t>
+  </si>
+  <si>
+    <t>Cost ($m)</t>
+  </si>
+  <si>
+    <t>Sum of total cost (in thousands)</t>
+  </si>
+  <si>
+    <t>Sum of total net book value (in thousands)</t>
+  </si>
+  <si>
+    <t>Sum of total accumulated amortization (in thousands)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +216,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,19 +254,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,18 +272,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <dxfs count="50">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" relativeIndent="1"/>
@@ -210,6 +326,45 @@
       <alignment relativeIndent="1"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
       <alignment relativeIndent="1"/>
     </dxf>
     <dxf>
@@ -231,16 +386,67 @@
       <alignment relativeIndent="1"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" relativeIndent="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,16 +1533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13578</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>189137</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>293481</xdr:rowOff>
+      <xdr:rowOff>106716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>488436</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>459464</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55142</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>246780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1359,8 +1565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4542131" y="672253"/>
-          <a:ext cx="5332050" cy="1291158"/>
+          <a:off x="5089843" y="480245"/>
+          <a:ext cx="5345681" cy="1290535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1371,16 +1577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>65897</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241457</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>203902</xdr:rowOff>
+      <xdr:rowOff>140249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,8 +1609,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552831" y="2060755"/>
-          <a:ext cx="5565236" cy="767015"/>
+          <a:off x="5076266" y="1337235"/>
+          <a:ext cx="5545573" cy="764043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1415,16 +1621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175559</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>250266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>242770</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418330</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>259014</xdr:rowOff>
+      <xdr:rowOff>173407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1447,8 +1653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4545263" y="3367172"/>
-          <a:ext cx="5732178" cy="818816"/>
+          <a:off x="5076265" y="2211295"/>
+          <a:ext cx="5722447" cy="823347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1459,16 +1665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>267369</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442929</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>265279</xdr:rowOff>
+      <xdr:rowOff>201627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1491,8 +1697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4528554" y="4695658"/>
-          <a:ext cx="5731710" cy="827867"/>
+          <a:off x="5076266" y="3021853"/>
+          <a:ext cx="5747045" cy="825421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,16 +1709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>194957</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370517</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>229054</xdr:rowOff>
+      <xdr:rowOff>160904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1535,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4528554" y="6010219"/>
-          <a:ext cx="5659298" cy="791642"/>
+          <a:off x="5076266" y="3877235"/>
+          <a:ext cx="5674633" cy="792169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,7 +1859,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{494C8ECC-C588-40F1-98F2-C1867E131DC4}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="YEAR">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{494C8ECC-C588-40F1-98F2-C1867E131DC4}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="YEAR">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1708,37 +1914,64 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Sum of total cost" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total net book value" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total accumulated amortization" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total cost (in thousands)" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total net book value (in thousands)" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total accumulated amortization (in thousands)" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="18">
+  <formats count="12">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2016,12 +2249,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.76953125" customWidth="1"/>
+    <col min="2" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.58984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="59" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{2BEAB270-F9BB-42EB-A718-1AB9AAB776C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2030,113 +2391,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C1CC8F-49CA-4981-8F2D-4A172FF931F9}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.76953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.58984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+    <row r="3" spans="1:4" ht="59" x14ac:dyDescent="0.75">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2019</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>12629</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>4404</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>8225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>2020</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>13164</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>3845</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>9319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2021</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>10416</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>2592</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>7824</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>2022</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>10010</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>2042</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>7965</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>2023</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>12190</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>2947</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>9243</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
         <v>58409</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>15830</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>42576</v>
       </c>
     </row>
@@ -2149,15 +2508,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3618E512-08A3-410C-BA39-6730F63959EA}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G40"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.6796875" customWidth="1"/>
+    <col min="2" max="2" width="27.76953125" customWidth="1"/>
     <col min="3" max="3" width="11.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.04296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -2165,225 +2524,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="59" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A4" s="2">
+      <c r="C4" s="12">
+        <v>12558</v>
+      </c>
+      <c r="D4" s="12">
+        <v>8225</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="1">
         <v>2019</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>12558</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8225</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>71</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="1">
         <v>2020</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>12813</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9319</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
-        <v>12813</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9319</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="59" x14ac:dyDescent="0.75">
-      <c r="A7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>351</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10389</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7824</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>10389</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7824</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="59" x14ac:dyDescent="0.75">
-      <c r="A9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="13">
         <v>27</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="1">
         <v>2022</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9262</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7965</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
-        <v>9262</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7965</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="59" x14ac:dyDescent="0.75">
-      <c r="A11" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="13">
         <v>748</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="13">
         <v>748</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="1">
         <v>2023</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9818</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9243</v>
+      </c>
+      <c r="E12" s="13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
-        <v>9818</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9243</v>
-      </c>
-      <c r="E12" s="2">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="59" x14ac:dyDescent="0.75">
-      <c r="A13" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="C13" s="12">
         <v>2372</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
         <v>2372</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
+      <c r="A17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>2019</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <f>C4+C5</f>
         <v>12629</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <f>D4+D5</f>
         <v>8225</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <f>E4+E5</f>
         <v>4404</v>
       </c>
@@ -2392,14 +2751,14 @@
       <c r="A20">
         <v>2020</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <f>C6+C7</f>
         <v>13164</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>9319</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>3845</v>
       </c>
     </row>
@@ -2407,14 +2766,14 @@
       <c r="A21">
         <v>2021</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <f>C8+C9</f>
         <v>10416</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>7824</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>2592</v>
       </c>
     </row>
@@ -2422,14 +2781,14 @@
       <c r="A22">
         <v>2022</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <f>C10+C11</f>
         <v>10010</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>7965</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>2042</v>
       </c>
     </row>
@@ -2437,30 +2796,30 @@
       <c r="A23">
         <v>2023</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <f>C12+C13</f>
         <v>12190</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>9243</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>2947</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6">
         <f xml:space="preserve"> SUM(B19:B23)</f>
         <v>58409</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <f xml:space="preserve"> SUM(C19:C23)</f>
         <v>42576</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <f t="shared" ref="D24" si="0" xml:space="preserve"> SUM(D19:D23)</f>
         <v>15830</v>
       </c>
